--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2711988.390191473</v>
+        <v>2816168.024642545</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>317.50585960698</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>119.3517065765357</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>60.23681676643444</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>132.4698967215667</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>239.1293185150375</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>196.1669922308556</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1069,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>35.00179869008803</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>82.57906258117926</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>96.42217904608353</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>230.696882824926</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>9.284642680148849</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>118.5885859271017</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,19 +1372,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576191</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881274</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>91.89996056624757</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>15.7604594243898</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>154.0364602909681</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1813,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2011,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,16 +2058,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>154.4892550148508</v>
       </c>
       <c r="V19" t="n">
-        <v>106.5290632934499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2248,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>75.00788511618082</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>27.77749086859478</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>127.5379405516743</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>178.9060413124614</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>170.9457618790575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>168.8664936943851</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>74.95497330698053</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>65.44930784064577</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>146.0663306291636</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>71.79687029690999</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>245.879692121443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1647.321240915451</v>
+        <v>1879.829578210439</v>
       </c>
       <c r="C2" t="n">
-        <v>1278.358723975039</v>
+        <v>1510.867061270027</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1510.867061270027</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3094.757873766027</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3094.757873766027</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2763.694986422457</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W2" t="n">
-        <v>2410.926331152342</v>
+        <v>2656.568750250372</v>
       </c>
       <c r="X2" t="n">
-        <v>2037.460572891262</v>
+        <v>2656.568750250372</v>
       </c>
       <c r="Y2" t="n">
-        <v>1647.321240915451</v>
+        <v>2266.429418274561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>691.6489789975187</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C4" t="n">
-        <v>522.7127960696118</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D4" t="n">
-        <v>372.5961566572761</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E4" t="n">
-        <v>224.683063074883</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971289</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X4" t="n">
-        <v>1094.090022971289</v>
+        <v>941.3375521384683</v>
       </c>
       <c r="Y4" t="n">
-        <v>873.2974438277585</v>
+        <v>807.5295756520372</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.169188758595</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1878.169188758595</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1519.903490151844</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1134.1152375536</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>723.1293327639926</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>308.056882608989</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2811.188928519624</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734407</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758595</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="6">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>980.7518458718754</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>811.8156629439685</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>661.6990235316327</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>513.7859299492396</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>366.8959824513292</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>199.1931458260482</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="X7" t="n">
-        <v>1383.192889845645</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y7" t="n">
-        <v>1162.400310702115</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3092.578667240559</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2739.810011970445</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.344253709365</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,46 +4871,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>549.3683227675136</v>
+        <v>471.2459535582122</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396067</v>
+        <v>471.2459535582122</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396067</v>
+        <v>321.1293141458765</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>173.2162205634834</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>173.2162205634834</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1717.677640414605</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1495.911024984131</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1495.911024984131</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1241.226536778244</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>951.8093667412835</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X10" t="n">
-        <v>951.8093667412835</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y10" t="n">
-        <v>731.0167875977534</v>
+        <v>652.894418388452</v>
       </c>
     </row>
     <row r="11">
@@ -5021,31 +5023,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5060,16 +5062,16 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5078,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,13 +5132,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.5007694647277</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C13" t="n">
-        <v>631.5645865368208</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>481.447947124485</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>333.5348535420919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>186.6449060441816</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5227,22 +5229,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2248.188593250933</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949674</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.826443164475</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,34 +5764,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>113.9333885650331</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6072,19 +6074,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>430.7826650753331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>430.7826650753331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6139,10 +6141,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>94.56320294380271</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2318.136881002812</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2098.535416025753</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6691,19 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,16 +6782,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2804.65264778894</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C34" t="n">
-        <v>2635.716464861033</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D34" t="n">
-        <v>2485.599825448698</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4268.260127559377</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3979.184900903575</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3724.500412697688</v>
+        <v>1517.813638001792</v>
       </c>
       <c r="W34" t="n">
-        <v>3435.083242660728</v>
+        <v>1228.396467964831</v>
       </c>
       <c r="X34" t="n">
-        <v>3207.09369176271</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y34" t="n">
-        <v>2986.30111261918</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="35">
@@ -6932,19 +6934,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,22 +7022,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2311.700279152293</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7260,16 +7262,16 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>2381.235169913446</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>2817.800993781637</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>3445.398957336244</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1607.889809492038</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="44">
@@ -7640,19 +7642,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081859</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>166.3387542569719</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>166.3387542569719</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>3972.967823953646</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V46" t="n">
-        <v>3972.967823953646</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W46" t="n">
-        <v>3972.967823953646</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X46" t="n">
-        <v>3744.978273055629</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912098</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
   </sheetData>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>73.62417772602127</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>201.6449909028985</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>25.79551989096916</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>131.6952193743933</v>
       </c>
       <c r="V19" t="n">
-        <v>145.6085800303781</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>211.1765892730633</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>117.6435571543365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>53.48834544997025</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.9259388694759423</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>46.45968844823076</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>83.27114962944287</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>40.32043864788574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>104.8770068749568</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>220.7351665485984</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>106.0713126946644</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.468966021655547</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>40.3047822678011</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>758809.4840135021</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135021</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.4840135021</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758809.4840135021</v>
+        <v>758809.484013502</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380336</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="F2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442546</v>
-      </c>
       <c r="L2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551197</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818179</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683053</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-851503.1250691341</v>
+        <v>-851503.1250691336</v>
       </c>
       <c r="C6" t="n">
-        <v>477241.6206584587</v>
+        <v>477241.6206584583</v>
       </c>
       <c r="D6" t="n">
-        <v>477241.6206584589</v>
+        <v>477241.6206584584</v>
       </c>
       <c r="E6" t="n">
         <v>226364.0889661621</v>
       </c>
       <c r="F6" t="n">
-        <v>551776.5507735173</v>
+        <v>551776.5507735172</v>
       </c>
       <c r="G6" t="n">
+        <v>551776.5507735175</v>
+      </c>
+      <c r="H6" t="n">
+        <v>551776.5507735175</v>
+      </c>
+      <c r="I6" t="n">
         <v>551776.5507735172</v>
       </c>
-      <c r="H6" t="n">
-        <v>551776.5507735173</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>334245.3483762398</v>
+      </c>
+      <c r="K6" t="n">
         <v>551776.5507735175</v>
       </c>
-      <c r="J6" t="n">
-        <v>334245.3483762399</v>
-      </c>
-      <c r="K6" t="n">
-        <v>551776.5507735171</v>
-      </c>
       <c r="L6" t="n">
-        <v>551776.5507735177</v>
+        <v>551776.5507735172</v>
       </c>
       <c r="M6" t="n">
-        <v>466721.5228380055</v>
+        <v>466721.5228380052</v>
       </c>
       <c r="N6" t="n">
         <v>551776.5507735175</v>
       </c>
       <c r="O6" t="n">
-        <v>551776.5507735173</v>
+        <v>551776.5507735175</v>
       </c>
       <c r="P6" t="n">
-        <v>551776.5507735172</v>
+        <v>551776.5507735176</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26972,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>64.4245104652818</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>84.56626356308441</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>85.18423125649682</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>86.11475663052809</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>55.47844587228292</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>153.0739764865575</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>109.7532162242327</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>143.1305928078579</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>286.311662617397</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>97.05537564520887</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>156.7411655788794</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>71.18043940434015</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31610,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31850,7 +31852,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>428.7353800421384</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,7 +31861,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32078,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32090,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,22 +32794,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>100.2764607028594</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,10 +33031,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,19 +33259,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>211.7351844430274</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,7 +33283,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33439,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33500,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M33" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>346.7710205055862</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>316.2462973459351</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868574</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35498,7 +35500,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>297.3936679588052</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35726,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>73.18080466315317</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,7 +36931,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37087,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,19 +37150,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M33" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>206.7892464195647</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>176.2645232599136</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648392</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2816168.024642545</v>
+        <v>2812155.414628552</v>
       </c>
     </row>
     <row r="7">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>135.4371632022871</v>
       </c>
       <c r="E2" t="n">
-        <v>317.50585960698</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>132.4698967215667</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>233.3072717231677</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>196.1669922308556</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>124.2292170629838</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>82.57906258117926</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>96.42217904608353</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222597</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>77.31354443380461</v>
       </c>
       <c r="G10" t="n">
-        <v>9.284642680148849</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576188</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>15.7604594243898</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.0364602909681</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018866</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>154.4892550148508</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>75.00788511618082</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>46.35517081455633</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>178.9060413124614</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>168.8664936943851</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.95497330698053</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>132.5039425933942</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>146.0663306291636</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>71.79687029690999</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1879.829578210439</v>
+        <v>1754.744438482648</v>
       </c>
       <c r="C2" t="n">
-        <v>1510.867061270027</v>
+        <v>1754.744438482648</v>
       </c>
       <c r="D2" t="n">
-        <v>1510.867061270027</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250372</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X2" t="n">
-        <v>2656.568750250372</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="Y2" t="n">
-        <v>2266.429418274561</v>
+        <v>2141.34427854677</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.8811108217975</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>456.9449278938906</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W4" t="n">
-        <v>1169.327103036486</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X4" t="n">
-        <v>941.3375521384683</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>807.5295756520372</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1442.617229168678</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1442.617229168678</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1056.828976570433</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4582,13 +4582,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2811.188928519624</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.723170258544</v>
+        <v>2588.318918149023</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.583838282732</v>
+        <v>2198.179586173211</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1801.810490449115</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.675339798491</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.675339798491</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>378.5528805490654</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.2459535582122</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>471.2459535582122</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>321.1293141458765</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>173.2162205634834</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="F10" t="n">
-        <v>173.2162205634834</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>873.6869975319821</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>652.894418388452</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5023,52 +5023,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961528</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2517.442480416599</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2248.188593250933</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.022157454266</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1327.139029956954</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1106.346450813424</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5545,19 +5545,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683104</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,13 +5691,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1821.411327970255</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1901.695539989114</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.011051783227</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6141,10 +6141,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,19 +6171,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
         <v>1202.091371290588</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>94.56320294380271</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>244.2098454714574</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6548,22 +6548,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1517.813638001792</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1228.396467964831</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1000.406917066814</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>779.6143379232838</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2311.700279152293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630049</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1607.889809492038</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1318.472639455077</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1090.48308855706</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>869.6905094135296</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7742,13 +7742,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>333.5348535420919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>333.5348535420919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3387542569719</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>166.3387542569719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>57.22910392194137</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>201.6449909028985</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.79551989096916</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>57.22910392194137</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>131.6952193743933</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>211.1765892730633</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>179.3544845744808</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9259388694759423</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>35.40333084624568</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>83.27114962944287</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>104.8770068749568</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>93.20571279564297</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>106.0713126946644</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>9.468966021655547</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.4840135021</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758809.4840135021</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380341</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380338</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380335</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380335</v>
-      </c>
       <c r="E2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="F2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="F2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="G2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="L2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="M2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442549</v>
-      </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551197</v>
+        <v>85055.02793551204</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818179</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683031</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-851503.1250691336</v>
+        <v>-851503.1250691335</v>
       </c>
       <c r="C6" t="n">
-        <v>477241.6206584583</v>
+        <v>477241.6206584589</v>
       </c>
       <c r="D6" t="n">
-        <v>477241.6206584584</v>
+        <v>477241.6206584586</v>
       </c>
       <c r="E6" t="n">
-        <v>226364.0889661621</v>
+        <v>226016.7097118048</v>
       </c>
       <c r="F6" t="n">
-        <v>551776.5507735172</v>
+        <v>551429.1715191604</v>
       </c>
       <c r="G6" t="n">
-        <v>551776.5507735175</v>
+        <v>551429.1715191604</v>
       </c>
       <c r="H6" t="n">
-        <v>551776.5507735175</v>
+        <v>551429.1715191607</v>
       </c>
       <c r="I6" t="n">
-        <v>551776.5507735172</v>
+        <v>551429.1715191606</v>
       </c>
       <c r="J6" t="n">
-        <v>334245.3483762398</v>
+        <v>333897.9691218826</v>
       </c>
       <c r="K6" t="n">
-        <v>551776.5507735175</v>
+        <v>551429.1715191604</v>
       </c>
       <c r="L6" t="n">
-        <v>551776.5507735172</v>
+        <v>551429.1715191604</v>
       </c>
       <c r="M6" t="n">
-        <v>466721.5228380052</v>
+        <v>466374.1435836483</v>
       </c>
       <c r="N6" t="n">
-        <v>551776.5507735175</v>
+        <v>551429.1715191605</v>
       </c>
       <c r="O6" t="n">
-        <v>551776.5507735175</v>
+        <v>551429.1715191603</v>
       </c>
       <c r="P6" t="n">
-        <v>551776.5507735176</v>
+        <v>551429.1715191604</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>219.2458784183958</v>
       </c>
       <c r="E2" t="n">
-        <v>64.4245104652818</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>190.707856698949</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>86.11475663052809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>173.5687740185437</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>153.0739764865575</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>161.9826211426291</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>143.1305928078579</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>286.311662617397</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.8774149194517</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>68.10750358912664</v>
       </c>
       <c r="G10" t="n">
-        <v>156.7411655788794</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-2.700062395888381e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-5.487218467042014e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.146602125827387e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943058</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543346</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>537.6437863443698</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,37 +32311,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543346</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>302.9675447508045</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>610.0546826043645</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>100.2764607028594</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33268,25 +33268,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>346.7710205055862</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>316.2462973459351</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>35.97859357997559</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>35.97859357997564</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>395.0475418999253</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997564</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>160.8335108287862</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>471.5003028244903</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7540807028594299</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>395.0475418999253</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>206.7892464195647</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>176.2645232599136</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2812155.414628552</v>
+        <v>2813915.944931339</v>
       </c>
     </row>
     <row r="7">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>135.4371632022871</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>175.2171019709021</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>61.42978662487899</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0.6667577510700857</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>233.3072717231677</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>124.2292170629838</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>71.01723617682096</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222597</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506846</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>77.31354443380461</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576188</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766865</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577715</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>194.9085394018866</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428256</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>140.575894358866</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2289,10 +2289,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>169.9685329265976</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>46.35517081455633</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>104.8913819999782</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>108.0275736005881</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>132.5039425933942</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1754.744438482648</v>
+        <v>1480.516858765517</v>
       </c>
       <c r="C2" t="n">
-        <v>1754.744438482648</v>
+        <v>1111.554341825106</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1111.554341825106</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1111.554341825106</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>700.5684370354982</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>285.4959868804946</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136267</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792696</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522582</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X2" t="n">
-        <v>2531.483610522582</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y2" t="n">
-        <v>2141.34427854677</v>
+        <v>1867.116698829639</v>
       </c>
     </row>
     <row r="3">
@@ -4400,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>2405.758056700422</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>2236.821873772515</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>2086.705234360179</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>1938.792140777786</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>1791.902193279876</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1624.199356654595</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V4" t="n">
-        <v>1865.244258568413</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W4" t="n">
-        <v>1575.827088531452</v>
+        <v>3036.188651572209</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.837537633435</v>
+        <v>2808.199100674192</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>2587.406521530662</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1811.579746109089</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1442.617229168678</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1442.617229168678</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1056.828976570433</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4570,13 +4570,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410103</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2588.318918149023</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y5" t="n">
-        <v>2198.179586173211</v>
+        <v>2345.840931351814</v>
       </c>
     </row>
     <row r="6">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1801.810490449115</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1547.126002243228</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.708832206268</v>
+        <v>1090.005995580987</v>
       </c>
       <c r="X7" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.60683175406</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473096</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490654</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758593</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>144.6066057592588</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5032,52 +5032,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961528</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622705</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177312</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2517.442480416599</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245697</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403286</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5497,52 +5497,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245697</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403286</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2025.377158693024</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1736.301932037222</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1481.617443831335</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5971,43 +5971,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6211,52 +6211,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>366.9636532421608</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>199.7675539570408</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>814.3728552556131</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6922,52 +6922,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>10.85445046951673</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219413</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>145.6085800303781</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>47.43691740069062</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>179.3544845744808</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>35.40333084624568</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>117.682081788449</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>93.20571279564297</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>758809.4840135021</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>758809.4840135021</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="15">
@@ -26316,28 +26316,28 @@
         <v>677359.4601380341</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="I2" t="n">
-        <v>665895.944744255</v>
-      </c>
       <c r="J2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442548</v>
@@ -26352,10 +26352,10 @@
         <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551204</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="C4" t="n">
         <v>92183.89891818169</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683031</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26441,7 +26441,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26450,7 +26450,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-851503.1250691335</v>
+        <v>-851503.1250691336</v>
       </c>
       <c r="C6" t="n">
-        <v>477241.6206584589</v>
+        <v>477241.6206584587</v>
       </c>
       <c r="D6" t="n">
-        <v>477241.6206584586</v>
+        <v>477241.6206584587</v>
       </c>
       <c r="E6" t="n">
-        <v>226016.7097118048</v>
+        <v>226329.3510407266</v>
       </c>
       <c r="F6" t="n">
-        <v>551429.1715191604</v>
+        <v>551741.812848082</v>
       </c>
       <c r="G6" t="n">
-        <v>551429.1715191604</v>
+        <v>551741.812848082</v>
       </c>
       <c r="H6" t="n">
-        <v>551429.1715191607</v>
+        <v>551741.812848082</v>
       </c>
       <c r="I6" t="n">
-        <v>551429.1715191606</v>
+        <v>551741.8128480817</v>
       </c>
       <c r="J6" t="n">
-        <v>333897.9691218826</v>
+        <v>334210.6104508042</v>
       </c>
       <c r="K6" t="n">
-        <v>551429.1715191604</v>
+        <v>551741.8128480817</v>
       </c>
       <c r="L6" t="n">
-        <v>551429.1715191604</v>
+        <v>551741.8128480817</v>
       </c>
       <c r="M6" t="n">
-        <v>466374.1435836483</v>
+        <v>466686.7849125697</v>
       </c>
       <c r="N6" t="n">
-        <v>551429.1715191605</v>
+        <v>551741.8128480817</v>
       </c>
       <c r="O6" t="n">
-        <v>551429.1715191603</v>
+        <v>551741.8128480818</v>
       </c>
       <c r="P6" t="n">
-        <v>551429.1715191604</v>
+        <v>551741.8128480816</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.014521090833242e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>219.2458784183958</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>119.3906624164183</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>83.3252282894418</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>190.707856698949</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.0670839124105</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>173.5687740185437</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27827,16 +27827,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>161.9826211426291</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>215.50576215977</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194517</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194503</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>68.10750358912664</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>24.68204843992099</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-2.700062395888381e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.331359270542922e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.487218467042014e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.146602125827387e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,28 +31846,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>169.9530009943058</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543346</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543346</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>35.97859357997559</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997564</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997564</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
